--- a/fp_growth.xlsx
+++ b/fp_growth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Джам\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{016C3846-1188-4D52-81DB-48E06313D21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB7E2A2-E4B8-46B0-88AE-2FE390A026F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{315B6B66-62AE-4B01-8889-5D727645ED0A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>a b c d e</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>c b d e</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>after</t>
   </si>
 </sst>
 </file>
@@ -429,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1965F935-7B96-404C-897E-E401FE237836}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,57 +449,65 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
